--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H2">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I2">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J2">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8436446666666667</v>
+        <v>0.9105153333333335</v>
       </c>
       <c r="N2">
-        <v>2.530934</v>
+        <v>2.731546</v>
       </c>
       <c r="O2">
-        <v>0.038256548453167</v>
+        <v>0.03002598096739917</v>
       </c>
       <c r="P2">
-        <v>0.03944386410459907</v>
+        <v>0.03049089185478593</v>
       </c>
       <c r="Q2">
-        <v>35.03511615606334</v>
+        <v>40.02894796469955</v>
       </c>
       <c r="R2">
-        <v>315.31604540457</v>
+        <v>360.260531682296</v>
       </c>
       <c r="S2">
-        <v>0.005274304562287307</v>
+        <v>0.003584572129316819</v>
       </c>
       <c r="T2">
-        <v>0.005756429332241544</v>
+        <v>0.003955114089676528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H3">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I3">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J3">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.719742</v>
       </c>
       <c r="O3">
-        <v>0.4038845360958133</v>
+        <v>0.2937114969858886</v>
       </c>
       <c r="P3">
-        <v>0.4164193425660044</v>
+        <v>0.2982592142727163</v>
       </c>
       <c r="Q3">
-        <v>369.8750203008233</v>
+        <v>391.559637709999</v>
       </c>
       <c r="R3">
-        <v>3328.87518270741</v>
+        <v>3524.036739389991</v>
       </c>
       <c r="S3">
-        <v>0.05568223317310517</v>
+        <v>0.03506396834456971</v>
       </c>
       <c r="T3">
-        <v>0.06077215233535378</v>
+        <v>0.0386885771122733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H4">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I4">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J4">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.206402666666667</v>
+        <v>9.030046333333333</v>
       </c>
       <c r="N4">
-        <v>18.619208</v>
+        <v>27.090139</v>
       </c>
       <c r="O4">
-        <v>0.2814402244434642</v>
+        <v>0.2977830129963756</v>
       </c>
       <c r="P4">
-        <v>0.2901748959424717</v>
+        <v>0.3023937720910131</v>
       </c>
       <c r="Q4">
-        <v>257.7412587660933</v>
+        <v>396.9875537104181</v>
       </c>
       <c r="R4">
-        <v>2319.67132889484</v>
+        <v>3572.887983393764</v>
       </c>
       <c r="S4">
-        <v>0.03880123847582605</v>
+        <v>0.03555003548859093</v>
       </c>
       <c r="T4">
-        <v>0.04234806402470645</v>
+        <v>0.03922488965962705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H5">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I5">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J5">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.991415</v>
+        <v>1.38711</v>
       </c>
       <c r="N5">
-        <v>3.98283</v>
+        <v>2.77422</v>
       </c>
       <c r="O5">
-        <v>0.09030420916293774</v>
+        <v>0.04574259975086167</v>
       </c>
       <c r="P5">
-        <v>0.06207123744503819</v>
+        <v>0.03096724053022875</v>
       </c>
       <c r="Q5">
-        <v>82.700049673275</v>
+        <v>60.98145959611999</v>
       </c>
       <c r="R5">
-        <v>496.20029803965</v>
+        <v>365.88875757672</v>
       </c>
       <c r="S5">
-        <v>0.0124499444314716</v>
+        <v>0.005460858992998822</v>
       </c>
       <c r="T5">
-        <v>0.00905866349629488</v>
+        <v>0.004016903471463567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H6">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I6">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J6">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.104251333333333</v>
+        <v>10.089997</v>
       </c>
       <c r="N6">
-        <v>12.312754</v>
+        <v>30.269991</v>
       </c>
       <c r="O6">
-        <v>0.1861144818446177</v>
+        <v>0.3327369092994751</v>
       </c>
       <c r="P6">
-        <v>0.1918906599418865</v>
+        <v>0.3378888812512559</v>
       </c>
       <c r="Q6">
-        <v>170.4425190822967</v>
+        <v>443.5861210577905</v>
       </c>
       <c r="R6">
-        <v>1533.98267174067</v>
+        <v>3992.275089520115</v>
       </c>
       <c r="S6">
-        <v>0.02565899173843383</v>
+        <v>0.03972291372478111</v>
       </c>
       <c r="T6">
-        <v>0.02800448304312731</v>
+        <v>0.04382912383627503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>216.066395</v>
       </c>
       <c r="I7">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J7">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8436446666666667</v>
+        <v>0.9105153333333335</v>
       </c>
       <c r="N7">
-        <v>2.530934</v>
+        <v>2.731546</v>
       </c>
       <c r="O7">
-        <v>0.038256548453167</v>
+        <v>0.03002598096739917</v>
       </c>
       <c r="P7">
-        <v>0.03944386410459907</v>
+        <v>0.03049089185478593</v>
       </c>
       <c r="Q7">
-        <v>60.76108726254778</v>
+        <v>65.57725522185223</v>
       </c>
       <c r="R7">
-        <v>546.8497853629301</v>
+        <v>590.1952969966701</v>
       </c>
       <c r="S7">
-        <v>0.009147179028345552</v>
+        <v>0.005872410176571367</v>
       </c>
       <c r="T7">
-        <v>0.009983323686411864</v>
+        <v>0.006479448980747354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>216.066395</v>
       </c>
       <c r="I8">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J8">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>26.719742</v>
       </c>
       <c r="O8">
-        <v>0.4038845360958133</v>
+        <v>0.2937114969858886</v>
       </c>
       <c r="P8">
-        <v>0.4164193425660044</v>
+        <v>0.2982592142727163</v>
       </c>
       <c r="Q8">
         <v>641.4709254744544</v>
@@ -948,10 +948,10 @@
         <v>5773.23832927009</v>
       </c>
       <c r="S8">
-        <v>0.09656919685191465</v>
+        <v>0.05744339829391901</v>
       </c>
       <c r="T8">
-        <v>0.1053965979371307</v>
+        <v>0.06338139832451375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>216.066395</v>
       </c>
       <c r="I9">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J9">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.206402666666667</v>
+        <v>9.030046333333333</v>
       </c>
       <c r="N9">
-        <v>18.619208</v>
+        <v>27.090139</v>
       </c>
       <c r="O9">
-        <v>0.2814402244434642</v>
+        <v>0.2977830129963756</v>
       </c>
       <c r="P9">
-        <v>0.2901748959424717</v>
+        <v>0.3023937720910131</v>
       </c>
       <c r="Q9">
-        <v>446.9983500350178</v>
+        <v>650.3631859754339</v>
       </c>
       <c r="R9">
-        <v>4022.98515031516</v>
+        <v>5853.268673778905</v>
       </c>
       <c r="S9">
-        <v>0.06729263937424038</v>
+        <v>0.05823969574311867</v>
       </c>
       <c r="T9">
-        <v>0.07344386706592478</v>
+        <v>0.06426001009386412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>216.066395</v>
       </c>
       <c r="I10">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J10">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.991415</v>
+        <v>1.38711</v>
       </c>
       <c r="N10">
-        <v>3.98283</v>
+        <v>2.77422</v>
       </c>
       <c r="O10">
-        <v>0.09030420916293774</v>
+        <v>0.04574259975086167</v>
       </c>
       <c r="P10">
-        <v>0.06207123744503819</v>
+        <v>0.03096724053022875</v>
       </c>
       <c r="Q10">
-        <v>143.425953332975</v>
+        <v>99.90261905615</v>
       </c>
       <c r="R10">
-        <v>860.55571999785</v>
+        <v>599.4157143369</v>
       </c>
       <c r="S10">
-        <v>0.02159182680156743</v>
+        <v>0.008946229219669638</v>
       </c>
       <c r="T10">
-        <v>0.01571035873632096</v>
+        <v>0.006580675174926187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>216.066395</v>
       </c>
       <c r="I11">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J11">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.104251333333333</v>
+        <v>10.089997</v>
       </c>
       <c r="N11">
-        <v>12.312754</v>
+        <v>30.269991</v>
       </c>
       <c r="O11">
-        <v>0.1861144818446177</v>
+        <v>0.3327369092994751</v>
       </c>
       <c r="P11">
-        <v>0.1918906599418865</v>
+        <v>0.3378888812512559</v>
       </c>
       <c r="Q11">
-        <v>295.5969299224255</v>
+        <v>726.7030924502716</v>
       </c>
       <c r="R11">
-        <v>2660.37236930183</v>
+        <v>6540.327832052444</v>
       </c>
       <c r="S11">
-        <v>0.04450015890180375</v>
+        <v>0.06507589591869353</v>
       </c>
       <c r="T11">
-        <v>0.04856792340423038</v>
+        <v>0.07180287732008964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H12">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I12">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J12">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8436446666666667</v>
+        <v>0.9105153333333335</v>
       </c>
       <c r="N12">
-        <v>2.530934</v>
+        <v>2.731546</v>
       </c>
       <c r="O12">
-        <v>0.038256548453167</v>
+        <v>0.03002598096739917</v>
       </c>
       <c r="P12">
-        <v>0.03944386410459907</v>
+        <v>0.03049089185478593</v>
       </c>
       <c r="Q12">
-        <v>55.11942052837267</v>
+        <v>68.53983993510889</v>
       </c>
       <c r="R12">
-        <v>496.0747847553541</v>
+        <v>616.85855941598</v>
       </c>
       <c r="S12">
-        <v>0.008297863488405072</v>
+        <v>0.00613770814551237</v>
       </c>
       <c r="T12">
-        <v>0.009056372117971966</v>
+        <v>0.006772171151502254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H13">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I13">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J13">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>26.719742</v>
       </c>
       <c r="O13">
-        <v>0.4038845360958133</v>
+        <v>0.2937114969858886</v>
       </c>
       <c r="P13">
-        <v>0.4164193425660044</v>
+        <v>0.2982592142727163</v>
       </c>
       <c r="Q13">
-        <v>581.9103523472446</v>
+        <v>670.4506677857177</v>
       </c>
       <c r="R13">
-        <v>5237.193171125202</v>
+        <v>6034.056010071459</v>
       </c>
       <c r="S13">
-        <v>0.08760274727092981</v>
+        <v>0.06003851962199756</v>
       </c>
       <c r="T13">
-        <v>0.09561052419707683</v>
+        <v>0.06624478077542283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H14">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I14">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J14">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.206402666666667</v>
+        <v>9.030046333333333</v>
       </c>
       <c r="N14">
-        <v>18.619208</v>
+        <v>27.090139</v>
       </c>
       <c r="O14">
-        <v>0.2814402244434642</v>
+        <v>0.2977830129963756</v>
       </c>
       <c r="P14">
-        <v>0.2901748959424717</v>
+        <v>0.3023937720910131</v>
       </c>
       <c r="Q14">
-        <v>405.4945548391387</v>
+        <v>679.7446540822855</v>
       </c>
       <c r="R14">
-        <v>3649.450993552248</v>
+        <v>6117.70188674057</v>
       </c>
       <c r="S14">
-        <v>0.06104451804994505</v>
+        <v>0.06087079141385952</v>
       </c>
       <c r="T14">
-        <v>0.06662460427254149</v>
+        <v>0.06716308560280006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H15">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I15">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J15">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.991415</v>
+        <v>1.38711</v>
       </c>
       <c r="N15">
-        <v>3.98283</v>
+        <v>2.77422</v>
       </c>
       <c r="O15">
-        <v>0.09030420916293774</v>
+        <v>0.04574259975086167</v>
       </c>
       <c r="P15">
-        <v>0.06207123744503819</v>
+        <v>0.03096724053022875</v>
       </c>
       <c r="Q15">
-        <v>130.108854080955</v>
+        <v>104.4159212831</v>
       </c>
       <c r="R15">
-        <v>780.65312448573</v>
+        <v>626.4955276986</v>
       </c>
       <c r="S15">
-        <v>0.01958702576056371</v>
+        <v>0.00935039316092974</v>
       </c>
       <c r="T15">
-        <v>0.01425165198405896</v>
+        <v>0.006877970443082629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H16">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I16">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J16">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.104251333333333</v>
+        <v>10.089997</v>
       </c>
       <c r="N16">
-        <v>12.312754</v>
+        <v>30.269991</v>
       </c>
       <c r="O16">
-        <v>0.1861144818446177</v>
+        <v>0.3327369092994751</v>
       </c>
       <c r="P16">
-        <v>0.1918906599418865</v>
+        <v>0.3378888812512559</v>
       </c>
       <c r="Q16">
-        <v>268.1507560404193</v>
+        <v>759.5333697390365</v>
       </c>
       <c r="R16">
-        <v>2413.356804363774</v>
+        <v>6835.800327651329</v>
       </c>
       <c r="S16">
-        <v>0.04036831930754161</v>
+        <v>0.06801583071465248</v>
       </c>
       <c r="T16">
-        <v>0.04405839189052254</v>
+        <v>0.07504671706295001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H17">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I17">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J17">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8436446666666667</v>
+        <v>0.9105153333333335</v>
       </c>
       <c r="N17">
-        <v>2.530934</v>
+        <v>2.731546</v>
       </c>
       <c r="O17">
-        <v>0.038256548453167</v>
+        <v>0.03002598096739917</v>
       </c>
       <c r="P17">
-        <v>0.03944386410459907</v>
+        <v>0.03049089185478593</v>
       </c>
       <c r="Q17">
-        <v>42.17265290449867</v>
+        <v>80.123835146334</v>
       </c>
       <c r="R17">
-        <v>253.035917426992</v>
+        <v>480.743010878004</v>
       </c>
       <c r="S17">
-        <v>0.006348813419859646</v>
+        <v>0.007175049082299307</v>
       </c>
       <c r="T17">
-        <v>0.004619439443110164</v>
+        <v>0.00527782892829875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H18">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I18">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J18">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>26.719742</v>
       </c>
       <c r="O18">
-        <v>0.4038845360958133</v>
+        <v>0.2937114969858886</v>
       </c>
       <c r="P18">
-        <v>0.4164193425660044</v>
+        <v>0.2982592142727163</v>
       </c>
       <c r="Q18">
-        <v>445.2278902032826</v>
+        <v>783.7642870230178</v>
       </c>
       <c r="R18">
-        <v>2671.367341219696</v>
+        <v>4702.585722138107</v>
       </c>
       <c r="S18">
-        <v>0.06702610837927317</v>
+        <v>0.07018569715332423</v>
       </c>
       <c r="T18">
-        <v>0.0487686482952646</v>
+        <v>0.05162725697618824</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H19">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I19">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J19">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.206402666666667</v>
+        <v>9.030046333333333</v>
       </c>
       <c r="N19">
-        <v>18.619208</v>
+        <v>27.090139</v>
       </c>
       <c r="O19">
-        <v>0.2814402244434642</v>
+        <v>0.2977830129963756</v>
       </c>
       <c r="P19">
-        <v>0.2901748959424717</v>
+        <v>0.3023937720910131</v>
       </c>
       <c r="Q19">
-        <v>310.2496534246507</v>
+        <v>794.6290603662809</v>
       </c>
       <c r="R19">
-        <v>1861.497920547904</v>
+        <v>4767.774362197686</v>
       </c>
       <c r="S19">
-        <v>0.04670602932259714</v>
+        <v>0.07115863213407742</v>
       </c>
       <c r="T19">
-        <v>0.03398362179127243</v>
+        <v>0.05234292934690983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H20">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I20">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J20">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.991415</v>
+        <v>1.38711</v>
       </c>
       <c r="N20">
-        <v>3.98283</v>
+        <v>2.77422</v>
       </c>
       <c r="O20">
-        <v>0.09030420916293774</v>
+        <v>0.04574259975086167</v>
       </c>
       <c r="P20">
-        <v>0.06207123744503819</v>
+        <v>0.03096724053022875</v>
       </c>
       <c r="Q20">
-        <v>99.54813549126</v>
+        <v>122.06337323607</v>
       </c>
       <c r="R20">
-        <v>398.19254196504</v>
+        <v>488.25349294428</v>
       </c>
       <c r="S20">
-        <v>0.01498631210040617</v>
+        <v>0.01093071359502808</v>
       </c>
       <c r="T20">
-        <v>0.007269427806968673</v>
+        <v>0.00536028262729786</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H21">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I21">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J21">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.104251333333333</v>
+        <v>10.089997</v>
       </c>
       <c r="N21">
-        <v>12.312754</v>
+        <v>30.269991</v>
       </c>
       <c r="O21">
-        <v>0.1861144818446177</v>
+        <v>0.3327369092994751</v>
       </c>
       <c r="P21">
-        <v>0.1918906599418865</v>
+        <v>0.3378888812512559</v>
       </c>
       <c r="Q21">
-        <v>205.1659587885253</v>
+        <v>887.9029563349887</v>
       </c>
       <c r="R21">
-        <v>1230.995752731152</v>
+        <v>5327.417738009933</v>
       </c>
       <c r="S21">
-        <v>0.03088637547665428</v>
+        <v>0.07951126253987971</v>
       </c>
       <c r="T21">
-        <v>0.0224731350090174</v>
+        <v>0.05848696458311256</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H22">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I22">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J22">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8436446666666667</v>
+        <v>0.9105153333333335</v>
       </c>
       <c r="N22">
-        <v>2.530934</v>
+        <v>2.731546</v>
       </c>
       <c r="O22">
-        <v>0.038256548453167</v>
+        <v>0.03002598096739917</v>
       </c>
       <c r="P22">
-        <v>0.03944386410459907</v>
+        <v>0.03049089185478593</v>
       </c>
       <c r="Q22">
-        <v>61.03482183539224</v>
+        <v>81.03051083650668</v>
       </c>
       <c r="R22">
-        <v>549.3133965185301</v>
+        <v>729.27459752856</v>
       </c>
       <c r="S22">
-        <v>0.009188387954269418</v>
+        <v>0.007256241433699304</v>
       </c>
       <c r="T22">
-        <v>0.01002829952486353</v>
+        <v>0.008006328704561036</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H23">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I23">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J23">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>26.719742</v>
       </c>
       <c r="O23">
-        <v>0.4038845360958133</v>
+        <v>0.2937114969858886</v>
       </c>
       <c r="P23">
-        <v>0.4164193425660044</v>
+        <v>0.2982592142727163</v>
       </c>
       <c r="Q23">
-        <v>644.3608140147655</v>
+        <v>792.6333086390131</v>
       </c>
       <c r="R23">
-        <v>5799.24732613289</v>
+        <v>7133.699777751119</v>
       </c>
       <c r="S23">
-        <v>0.09700425042059042</v>
+        <v>0.07097991357207803</v>
       </c>
       <c r="T23">
-        <v>0.1058714198011785</v>
+        <v>0.07831720108431822</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H24">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I24">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J24">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.206402666666667</v>
+        <v>9.030046333333333</v>
       </c>
       <c r="N24">
-        <v>18.619208</v>
+        <v>27.090139</v>
       </c>
       <c r="O24">
-        <v>0.2814402244434642</v>
+        <v>0.2977830129963756</v>
       </c>
       <c r="P24">
-        <v>0.2901748959424717</v>
+        <v>0.3023937720910131</v>
       </c>
       <c r="Q24">
-        <v>449.0121208202623</v>
+        <v>803.6210269942266</v>
       </c>
       <c r="R24">
-        <v>4041.10908738236</v>
+        <v>7232.589242948039</v>
       </c>
       <c r="S24">
-        <v>0.06759579922085554</v>
+        <v>0.07196385821672906</v>
       </c>
       <c r="T24">
-        <v>0.07377473878802655</v>
+        <v>0.07940285738781204</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H25">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I25">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J25">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.991415</v>
+        <v>1.38711</v>
       </c>
       <c r="N25">
-        <v>3.98283</v>
+        <v>2.77422</v>
       </c>
       <c r="O25">
-        <v>0.09030420916293774</v>
+        <v>0.04574259975086167</v>
       </c>
       <c r="P25">
-        <v>0.06207123744503819</v>
+        <v>0.03096724053022875</v>
       </c>
       <c r="Q25">
-        <v>144.072101119975</v>
+        <v>123.4446337932</v>
       </c>
       <c r="R25">
-        <v>864.4326067198501</v>
+        <v>740.6678027592</v>
       </c>
       <c r="S25">
-        <v>0.02168910006892882</v>
+        <v>0.01105440478223538</v>
       </c>
       <c r="T25">
-        <v>0.01578113542139471</v>
+        <v>0.008131408813458503</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H26">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I26">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J26">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.104251333333333</v>
+        <v>10.089997</v>
       </c>
       <c r="N26">
-        <v>12.312754</v>
+        <v>30.269991</v>
       </c>
       <c r="O26">
-        <v>0.1861144818446177</v>
+        <v>0.3327369092994751</v>
       </c>
       <c r="P26">
-        <v>0.1918906599418865</v>
+        <v>0.3378888812512559</v>
       </c>
       <c r="Q26">
-        <v>296.9286226717145</v>
+        <v>897.9504038176398</v>
       </c>
       <c r="R26">
-        <v>2672.35760404543</v>
+        <v>8081.553634358758</v>
       </c>
       <c r="S26">
-        <v>0.04470063642018424</v>
+        <v>0.08041100640146825</v>
       </c>
       <c r="T26">
-        <v>0.04878672659498885</v>
+        <v>0.0887231984488287</v>
       </c>
     </row>
   </sheetData>
